--- a/data/__data_dictionary.xlsx
+++ b/data/__data_dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mar\Dev\Projects\R\Bnip3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F09AF66-AB21-41F5-925F-AC754EA7AADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4208F0-E649-4A02-A84E-D470D0669478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Condition</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>bnip3_level</t>
+  </si>
+  <si>
+    <t>Bnip3 Level</t>
+  </si>
+  <si>
+    <t>Background-corrected Bnip3 Level</t>
   </si>
 </sst>
 </file>
@@ -461,7 +470,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -538,7 +547,15 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C7" s="2"/>
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" s="2"/>

--- a/data/__data_dictionary.xlsx
+++ b/data/__data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mar\Dev\Projects\R\Bnip3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\R\Bnip3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4208F0-E649-4A02-A84E-D470D0669478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095BF62B-8969-48AE-B4F0-5F2DB240DE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OD" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Condition</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>bnip3_level</t>
-  </si>
-  <si>
-    <t>Bnip3 Level</t>
   </si>
   <si>
     <t>Background-corrected Bnip3 Level</t>
@@ -469,18 +466,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.53515625" customWidth="1"/>
-    <col min="2" max="2" width="98.3046875" customWidth="1"/>
-    <col min="3" max="3" width="99.53515625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="98.28515625" customWidth="1"/>
+    <col min="3" max="3" width="99.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -502,7 +499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -513,7 +510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -524,7 +521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -535,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -546,51 +543,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
     </row>
   </sheetData>
@@ -606,13 +603,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.15234375" customWidth="1"/>
-    <col min="2" max="2" width="38.53515625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -623,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -634,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -658,13 +655,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.3828125" customWidth="1"/>
-    <col min="3" max="3" width="10.3046875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -675,7 +672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -686,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -697,7 +694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -721,14 +718,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="71.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -739,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -750,7 +747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
